--- a/Cluster Quality.xlsx
+++ b/Cluster Quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brayan Gutierrez\Desktop\RNAseq-AMD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1200C47A-4F51-4D7F-8A77-3BD5CDFC7EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCF3659-A45B-45C6-ACB9-58DDC6CAD933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F0913D2-2B00-4164-80E8-0CD302FD09E7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F0913D2-2B00-4164-80E8-0CD302FD09E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -618,6 +618,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,19 +636,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -649,12 +655,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1611,7 +1611,7 @@
   <dimension ref="A1:S147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I62" sqref="I62:I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,13 +1686,13 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="34">
         <v>0.50560000000000005</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="4">
@@ -1707,19 +1707,19 @@
       <c r="H2" s="4">
         <v>0.66369999999999996</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="31" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="34">
         <v>0.51919999999999999</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="31" t="s">
+      <c r="M2" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="34" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="4">
@@ -1734,7 +1734,7 @@
       <c r="R2" s="4">
         <v>0.74870000000000003</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="S2" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1742,9 +1742,9 @@
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="2">
         <v>0.2258</v>
       </c>
@@ -1757,13 +1757,13 @@
       <c r="H3" s="2">
         <v>0.66869999999999996</v>
       </c>
-      <c r="I3" s="35"/>
+      <c r="I3" s="32"/>
       <c r="K3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
       <c r="O3" s="2">
         <v>0.33329999999999999</v>
       </c>
@@ -1776,15 +1776,15 @@
       <c r="R3" s="2">
         <v>0.7006</v>
       </c>
-      <c r="S3" s="35"/>
+      <c r="S3" s="32"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="7">
         <v>0.1429</v>
       </c>
@@ -1797,13 +1797,13 @@
       <c r="H4" s="7">
         <v>0.60070000000000001</v>
       </c>
-      <c r="I4" s="36"/>
+      <c r="I4" s="33"/>
       <c r="K4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
       <c r="O4" s="2">
         <v>0.38140000000000002</v>
       </c>
@@ -1816,19 +1816,19 @@
       <c r="R4" s="2">
         <v>0.64800000000000002</v>
       </c>
-      <c r="S4" s="35"/>
+      <c r="S4" s="32"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="34">
         <v>0.59079999999999999</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4">
@@ -1843,15 +1843,15 @@
       <c r="H5" s="4">
         <v>0.64949999999999997</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="31" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
       <c r="O5" s="2">
         <v>0.26529999999999998</v>
       </c>
@@ -1864,15 +1864,15 @@
       <c r="R5" s="2">
         <v>0.62239999999999995</v>
       </c>
-      <c r="S5" s="35"/>
+      <c r="S5" s="32"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="2">
         <v>0.1275</v>
       </c>
@@ -1885,13 +1885,13 @@
       <c r="H6" s="2">
         <v>0.63690000000000002</v>
       </c>
-      <c r="I6" s="35"/>
+      <c r="I6" s="32"/>
       <c r="K6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
       <c r="O6" s="2">
         <v>0.21049999999999999</v>
       </c>
@@ -1904,15 +1904,15 @@
       <c r="R6" s="2">
         <v>0.65539999999999998</v>
       </c>
-      <c r="S6" s="35"/>
+      <c r="S6" s="32"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="2">
         <v>0.12089999999999999</v>
       </c>
@@ -1925,13 +1925,13 @@
       <c r="H7" s="2">
         <v>0.59319999999999995</v>
       </c>
-      <c r="I7" s="35"/>
+      <c r="I7" s="32"/>
       <c r="K7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="11">
         <v>0.14810000000000001</v>
       </c>
@@ -1944,15 +1944,15 @@
       <c r="R7" s="11">
         <v>0.67810000000000004</v>
       </c>
-      <c r="S7" s="38"/>
+      <c r="S7" s="39"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="7">
         <v>0.1011</v>
       </c>
@@ -1965,17 +1965,17 @@
       <c r="H8" s="7">
         <v>0.60440000000000005</v>
       </c>
-      <c r="I8" s="36"/>
+      <c r="I8" s="33"/>
       <c r="K8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="34">
         <v>0.59079999999999999</v>
       </c>
-      <c r="M8" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="31" t="s">
+      <c r="M8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="34" t="s">
         <v>15</v>
       </c>
       <c r="O8" s="4">
@@ -1990,7 +1990,7 @@
       <c r="R8" s="4">
         <v>0.65849999999999997</v>
       </c>
-      <c r="S8" s="34" t="s">
+      <c r="S8" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1998,13 +1998,13 @@
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="34">
         <v>0.57720000000000005</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="4">
@@ -2019,15 +2019,15 @@
       <c r="H9" s="4">
         <v>0.58699999999999997</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="31" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
       <c r="O9" s="2">
         <v>0.1275</v>
       </c>
@@ -2040,15 +2040,15 @@
       <c r="R9" s="2">
         <v>0.64849999999999997</v>
       </c>
-      <c r="S9" s="35"/>
+      <c r="S9" s="32"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="2">
         <v>8.5000000000000006E-2</v>
       </c>
@@ -2061,13 +2061,13 @@
       <c r="H10" s="2">
         <v>0.63859999999999995</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="32"/>
       <c r="K10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
       <c r="O10" s="2">
         <v>0.12089999999999999</v>
       </c>
@@ -2080,15 +2080,15 @@
       <c r="R10" s="2">
         <v>0.6048</v>
       </c>
-      <c r="S10" s="35"/>
+      <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="2">
         <v>0.1011</v>
       </c>
@@ -2101,13 +2101,13 @@
       <c r="H11" s="2">
         <v>0.59319999999999995</v>
       </c>
-      <c r="I11" s="35"/>
+      <c r="I11" s="32"/>
       <c r="K11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="11">
         <v>0.1011</v>
       </c>
@@ -2120,15 +2120,15 @@
       <c r="R11" s="11">
         <v>0.64959999999999996</v>
       </c>
-      <c r="S11" s="38"/>
+      <c r="S11" s="39"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="2">
         <v>0.1429</v>
       </c>
@@ -2141,17 +2141,17 @@
       <c r="H12" s="2">
         <v>0.61280000000000001</v>
       </c>
-      <c r="I12" s="35"/>
+      <c r="I12" s="32"/>
       <c r="K12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="34">
         <v>0.57720000000000005</v>
       </c>
-      <c r="M12" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="31" t="s">
+      <c r="M12" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="34" t="s">
         <v>15</v>
       </c>
       <c r="O12" s="4">
@@ -2166,7 +2166,7 @@
       <c r="R12" s="4">
         <v>0.70299999999999996</v>
       </c>
-      <c r="S12" s="34" t="s">
+      <c r="S12" s="31" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2174,9 +2174,9 @@
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="7">
         <v>0.27589999999999998</v>
       </c>
@@ -2189,13 +2189,13 @@
       <c r="H13" s="7">
         <v>0.69320000000000004</v>
       </c>
-      <c r="I13" s="36"/>
+      <c r="I13" s="33"/>
       <c r="K13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
       <c r="O13" s="2">
         <v>8.4900000000000003E-2</v>
       </c>
@@ -2208,19 +2208,19 @@
       <c r="R13" s="2">
         <v>0.65200000000000002</v>
       </c>
-      <c r="S13" s="35"/>
+      <c r="S13" s="32"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="34">
         <v>0.57720000000000005</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="4">
@@ -2235,15 +2235,15 @@
       <c r="H14" s="4">
         <v>0.7409</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="31" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
       <c r="O14" s="2">
         <v>0.1011</v>
       </c>
@@ -2256,15 +2256,15 @@
       <c r="R14" s="2">
         <v>0.6048</v>
       </c>
-      <c r="S14" s="35"/>
+      <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="11">
         <v>0.26419999999999999</v>
       </c>
@@ -2277,13 +2277,13 @@
       <c r="H15" s="11">
         <v>0.80410000000000004</v>
       </c>
-      <c r="I15" s="38"/>
+      <c r="I15" s="39"/>
       <c r="K15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
       <c r="O15" s="2">
         <v>0.5</v>
       </c>
@@ -2296,19 +2296,19 @@
       <c r="R15" s="2">
         <v>0.58550000000000002</v>
       </c>
-      <c r="S15" s="35"/>
+      <c r="S15" s="32"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="34">
         <v>0.6129</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="4">
@@ -2323,15 +2323,15 @@
       <c r="H16" s="4">
         <v>0.55110000000000003</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="31" t="s">
         <v>25</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
       <c r="O16" s="11">
         <v>0.1429</v>
       </c>
@@ -2344,15 +2344,15 @@
       <c r="R16" s="11">
         <v>0.65280000000000005</v>
       </c>
-      <c r="S16" s="38"/>
+      <c r="S16" s="39"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="2">
         <v>0.24590000000000001</v>
       </c>
@@ -2365,17 +2365,17 @@
       <c r="H17" s="2">
         <v>0.47799999999999998</v>
       </c>
-      <c r="I17" s="35"/>
+      <c r="I17" s="32"/>
       <c r="K17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="34">
         <v>0.54379999999999995</v>
       </c>
-      <c r="M17" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="31" t="s">
+      <c r="M17" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="34" t="s">
         <v>15</v>
       </c>
       <c r="O17" s="12">
@@ -2390,7 +2390,7 @@
       <c r="R17" s="4">
         <v>0.66249999999999998</v>
       </c>
-      <c r="S17" s="34" t="s">
+      <c r="S17" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2398,9 +2398,9 @@
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="2">
         <v>0.1948</v>
       </c>
@@ -2413,13 +2413,13 @@
       <c r="H18" s="2">
         <v>0.54879999999999995</v>
       </c>
-      <c r="I18" s="35"/>
+      <c r="I18" s="32"/>
       <c r="K18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
       <c r="O18" s="13">
         <v>0.29170000000000001</v>
       </c>
@@ -2432,15 +2432,15 @@
       <c r="R18" s="2">
         <v>0.69059999999999999</v>
       </c>
-      <c r="S18" s="35"/>
+      <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="2">
         <v>0.33329999999999999</v>
       </c>
@@ -2453,13 +2453,13 @@
       <c r="H19" s="2">
         <v>0.61099999999999999</v>
       </c>
-      <c r="I19" s="35"/>
+      <c r="I19" s="32"/>
       <c r="K19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
       <c r="O19" s="13">
         <v>0.23480000000000001</v>
       </c>
@@ -2472,15 +2472,15 @@
       <c r="R19" s="2">
         <v>0.60540000000000005</v>
       </c>
-      <c r="S19" s="35"/>
+      <c r="S19" s="32"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="2">
         <v>0.15379999999999999</v>
       </c>
@@ -2493,13 +2493,13 @@
       <c r="H20" s="2">
         <v>0.58179999999999998</v>
       </c>
-      <c r="I20" s="35"/>
+      <c r="I20" s="32"/>
       <c r="K20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
       <c r="O20" s="13">
         <v>0.18679999999999999</v>
       </c>
@@ -2512,15 +2512,15 @@
       <c r="R20" s="2">
         <v>0.61709999999999998</v>
       </c>
-      <c r="S20" s="35"/>
+      <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="2">
         <v>0.2364</v>
       </c>
@@ -2533,13 +2533,13 @@
       <c r="H21" s="2">
         <v>0.65210000000000001</v>
       </c>
-      <c r="I21" s="35"/>
+      <c r="I21" s="32"/>
       <c r="K21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
       <c r="O21" s="14">
         <v>0.13919999999999999</v>
       </c>
@@ -2552,15 +2552,15 @@
       <c r="R21" s="11">
         <v>0.61070000000000002</v>
       </c>
-      <c r="S21" s="38"/>
+      <c r="S21" s="39"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="7">
         <v>9.0899999999999995E-2</v>
       </c>
@@ -2573,17 +2573,17 @@
       <c r="H22" s="7">
         <v>0.6704</v>
       </c>
-      <c r="I22" s="36"/>
+      <c r="I22" s="33"/>
       <c r="K22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="34">
         <v>0.27460000000000001</v>
       </c>
-      <c r="M22" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="31" t="s">
+      <c r="M22" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="34" t="s">
         <v>15</v>
       </c>
       <c r="O22" s="4">
@@ -2598,7 +2598,7 @@
       <c r="R22" s="4">
         <v>0.72119999999999995</v>
       </c>
-      <c r="S22" s="34" t="s">
+      <c r="S22" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2606,13 +2606,13 @@
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="34">
         <v>0.68669999999999998</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="4">
@@ -2627,15 +2627,15 @@
       <c r="H23" s="4">
         <v>0.56220000000000003</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="31" t="s">
         <v>27</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
       <c r="O23" s="11">
         <v>0.47370000000000001</v>
       </c>
@@ -2648,15 +2648,15 @@
       <c r="R23" s="11">
         <v>0.67169999999999996</v>
       </c>
-      <c r="S23" s="38"/>
+      <c r="S23" s="39"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="2">
         <v>0.1</v>
       </c>
@@ -2669,17 +2669,17 @@
       <c r="H24" s="2">
         <v>0.48259999999999997</v>
       </c>
-      <c r="I24" s="35"/>
+      <c r="I24" s="32"/>
       <c r="K24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="31">
+      <c r="L24" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="34">
         <v>0.51919999999999999</v>
       </c>
-      <c r="N24" s="31" t="s">
+      <c r="N24" s="34" t="s">
         <v>15</v>
       </c>
       <c r="O24" s="4">
@@ -2694,7 +2694,7 @@
       <c r="R24" s="4">
         <v>0.74870000000000003</v>
       </c>
-      <c r="S24" s="34" t="s">
+      <c r="S24" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2702,9 +2702,9 @@
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="2">
         <v>0.23080000000000001</v>
       </c>
@@ -2717,13 +2717,13 @@
       <c r="H25" s="2">
         <v>0.59279999999999999</v>
       </c>
-      <c r="I25" s="35"/>
+      <c r="I25" s="32"/>
       <c r="K25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
       <c r="O25" s="2">
         <v>0.33329999999999999</v>
       </c>
@@ -2736,15 +2736,15 @@
       <c r="R25" s="2">
         <v>0.7006</v>
       </c>
-      <c r="S25" s="35"/>
+      <c r="S25" s="32"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="7">
         <v>0.1333</v>
       </c>
@@ -2757,13 +2757,13 @@
       <c r="H26" s="7">
         <v>0.5847</v>
       </c>
-      <c r="I26" s="36"/>
+      <c r="I26" s="33"/>
       <c r="K26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
       <c r="O26" s="2">
         <v>0.38140000000000002</v>
       </c>
@@ -2776,19 +2776,19 @@
       <c r="R26" s="2">
         <v>0.64800000000000002</v>
       </c>
-      <c r="S26" s="35"/>
+      <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="34">
         <v>0.54379999999999995</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="31" t="s">
+      <c r="C27" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="4">
@@ -2803,15 +2803,15 @@
       <c r="H27" s="4">
         <v>0.66249999999999998</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="31" t="s">
         <v>28</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
       <c r="O27" s="2">
         <v>0.26529999999999998</v>
       </c>
@@ -2824,15 +2824,15 @@
       <c r="R27" s="2">
         <v>0.62239999999999995</v>
       </c>
-      <c r="S27" s="35"/>
+      <c r="S27" s="32"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="2">
         <v>0.29170000000000001</v>
       </c>
@@ -2845,13 +2845,13 @@
       <c r="H28" s="2">
         <v>0.69059999999999999</v>
       </c>
-      <c r="I28" s="35"/>
+      <c r="I28" s="32"/>
       <c r="K28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
       <c r="O28" s="2">
         <v>0.21049999999999999</v>
       </c>
@@ -2864,15 +2864,15 @@
       <c r="R28" s="2">
         <v>0.65539999999999998</v>
       </c>
-      <c r="S28" s="35"/>
+      <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="2">
         <v>0.23480000000000001</v>
       </c>
@@ -2885,13 +2885,13 @@
       <c r="H29" s="2">
         <v>0.60540000000000005</v>
       </c>
-      <c r="I29" s="35"/>
+      <c r="I29" s="32"/>
       <c r="K29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
       <c r="O29" s="7">
         <v>0.14810000000000001</v>
       </c>
@@ -2904,15 +2904,15 @@
       <c r="R29" s="7">
         <v>0.67810000000000004</v>
       </c>
-      <c r="S29" s="36"/>
+      <c r="S29" s="33"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="2">
         <v>0.18679999999999999</v>
       </c>
@@ -2925,17 +2925,17 @@
       <c r="H30" s="2">
         <v>0.61709999999999998</v>
       </c>
-      <c r="I30" s="35"/>
+      <c r="I30" s="32"/>
       <c r="K30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M30" s="31">
+      <c r="L30" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="34">
         <v>0.59079999999999999</v>
       </c>
-      <c r="N30" s="31" t="s">
+      <c r="N30" s="34" t="s">
         <v>15</v>
       </c>
       <c r="O30" s="4">
@@ -2950,7 +2950,7 @@
       <c r="R30" s="4">
         <v>0.65849999999999997</v>
       </c>
-      <c r="S30" s="34" t="s">
+      <c r="S30" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2958,9 +2958,9 @@
       <c r="A31" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="11">
         <v>0.13919999999999999</v>
       </c>
@@ -2973,13 +2973,13 @@
       <c r="H31" s="11">
         <v>0.61070000000000002</v>
       </c>
-      <c r="I31" s="38"/>
+      <c r="I31" s="39"/>
       <c r="K31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
       <c r="O31" s="2">
         <v>0.1275</v>
       </c>
@@ -2992,19 +2992,19 @@
       <c r="R31" s="2">
         <v>0.64849999999999997</v>
       </c>
-      <c r="S31" s="35"/>
+      <c r="S31" s="32"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="31">
+      <c r="B32" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="34">
         <v>0.47860000000000003</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="4">
@@ -3019,15 +3019,15 @@
       <c r="H32" s="4">
         <v>0.40610000000000002</v>
       </c>
-      <c r="I32" s="34" t="s">
+      <c r="I32" s="31" t="s">
         <v>12</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
       <c r="O32" s="2">
         <v>0.12089999999999999</v>
       </c>
@@ -3040,15 +3040,15 @@
       <c r="R32" s="2">
         <v>0.6048</v>
       </c>
-      <c r="S32" s="35"/>
+      <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="2">
         <v>0.2833</v>
       </c>
@@ -3061,13 +3061,13 @@
       <c r="H33" s="2">
         <v>0.41220000000000001</v>
       </c>
-      <c r="I33" s="35"/>
+      <c r="I33" s="32"/>
       <c r="K33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
       <c r="O33" s="7">
         <v>0.1011</v>
       </c>
@@ -3080,15 +3080,15 @@
       <c r="R33" s="7">
         <v>0.64959999999999996</v>
       </c>
-      <c r="S33" s="36"/>
+      <c r="S33" s="33"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="2">
         <v>0.29409999999999997</v>
       </c>
@@ -3101,17 +3101,17 @@
       <c r="H34" s="2">
         <v>0.25380000000000003</v>
       </c>
-      <c r="I34" s="35"/>
+      <c r="I34" s="32"/>
       <c r="K34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M34" s="31">
+      <c r="L34" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="34">
         <v>0.57720000000000005</v>
       </c>
-      <c r="N34" s="31" t="s">
+      <c r="N34" s="34" t="s">
         <v>15</v>
       </c>
       <c r="O34" s="4">
@@ -3126,7 +3126,7 @@
       <c r="R34" s="4">
         <v>0.70299999999999996</v>
       </c>
-      <c r="S34" s="34" t="s">
+      <c r="S34" s="31" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3134,9 +3134,9 @@
       <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="2">
         <v>0.23680000000000001</v>
       </c>
@@ -3149,13 +3149,13 @@
       <c r="H35" s="2">
         <v>0.39710000000000001</v>
       </c>
-      <c r="I35" s="35"/>
+      <c r="I35" s="32"/>
       <c r="K35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
       <c r="O35" s="2">
         <v>8.5000000000000006E-2</v>
       </c>
@@ -3168,15 +3168,15 @@
       <c r="R35" s="2">
         <v>0.65200000000000002</v>
       </c>
-      <c r="S35" s="35"/>
+      <c r="S35" s="32"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="2">
         <v>0.52629999999999999</v>
       </c>
@@ -3189,13 +3189,13 @@
       <c r="H36" s="2">
         <v>0.21229999999999999</v>
       </c>
-      <c r="I36" s="35"/>
+      <c r="I36" s="32"/>
       <c r="K36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
       <c r="O36" s="2">
         <v>0.1011</v>
       </c>
@@ -3208,15 +3208,15 @@
       <c r="R36" s="2">
         <v>0.6048</v>
       </c>
-      <c r="S36" s="35"/>
+      <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="7">
         <v>0.5</v>
       </c>
@@ -3229,13 +3229,13 @@
       <c r="H37" s="7">
         <v>0.34329999999999999</v>
       </c>
-      <c r="I37" s="36"/>
+      <c r="I37" s="33"/>
       <c r="K37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
       <c r="O37" s="2">
         <v>0.5</v>
       </c>
@@ -3248,19 +3248,19 @@
       <c r="R37" s="2">
         <v>0.58550000000000002</v>
       </c>
-      <c r="S37" s="35"/>
+      <c r="S37" s="32"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="31">
+      <c r="B38" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="34">
         <v>0.57110000000000005</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="4">
@@ -3275,15 +3275,15 @@
       <c r="H38" s="4">
         <v>0.38290000000000002</v>
       </c>
-      <c r="I38" s="34" t="s">
+      <c r="I38" s="31" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
       <c r="O38" s="7">
         <v>0.1429</v>
       </c>
@@ -3296,15 +3296,15 @@
       <c r="R38" s="7">
         <v>0.65280000000000005</v>
       </c>
-      <c r="S38" s="36"/>
+      <c r="S38" s="33"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="2">
         <v>0.23250000000000001</v>
       </c>
@@ -3317,17 +3317,17 @@
       <c r="H39" s="2">
         <v>0.3926</v>
       </c>
-      <c r="I39" s="35"/>
+      <c r="I39" s="32"/>
       <c r="K39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L39" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M39" s="31">
+      <c r="L39" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" s="34">
         <v>0.54379999999999995</v>
       </c>
-      <c r="N39" s="31" t="s">
+      <c r="N39" s="34" t="s">
         <v>15</v>
       </c>
       <c r="O39" s="4">
@@ -3342,7 +3342,7 @@
       <c r="R39" s="4">
         <v>0.66249999999999998</v>
       </c>
-      <c r="S39" s="34" t="s">
+      <c r="S39" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3350,9 +3350,9 @@
       <c r="A40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="2">
         <v>0.1714</v>
       </c>
@@ -3365,13 +3365,13 @@
       <c r="H40" s="2">
         <v>0.3281</v>
       </c>
-      <c r="I40" s="35"/>
+      <c r="I40" s="32"/>
       <c r="K40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
       <c r="O40" s="2">
         <v>0.29170000000000001</v>
       </c>
@@ -3384,15 +3384,15 @@
       <c r="R40" s="2">
         <v>0.69059999999999999</v>
       </c>
-      <c r="S40" s="35"/>
+      <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="2">
         <v>0.36840000000000001</v>
       </c>
@@ -3405,13 +3405,13 @@
       <c r="H41" s="2">
         <v>0.39150000000000001</v>
       </c>
-      <c r="I41" s="35"/>
+      <c r="I41" s="32"/>
       <c r="K41" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
       <c r="O41" s="2">
         <v>0.23480000000000001</v>
       </c>
@@ -3424,15 +3424,15 @@
       <c r="R41" s="2">
         <v>0.60540000000000005</v>
       </c>
-      <c r="S41" s="35"/>
+      <c r="S41" s="32"/>
     </row>
     <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
       <c r="E42" s="7">
         <v>0.122</v>
       </c>
@@ -3445,13 +3445,13 @@
       <c r="H42" s="7">
         <v>0.30980000000000002</v>
       </c>
-      <c r="I42" s="36"/>
+      <c r="I42" s="33"/>
       <c r="K42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
       <c r="O42" s="2">
         <v>0.18679999999999999</v>
       </c>
@@ -3464,19 +3464,19 @@
       <c r="R42" s="2">
         <v>0.61709999999999998</v>
       </c>
-      <c r="S42" s="35"/>
+      <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="31">
+      <c r="B43" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="34">
         <v>0.51359999999999995</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="4">
@@ -3491,15 +3491,15 @@
       <c r="H43" s="4">
         <v>0.38019999999999998</v>
       </c>
-      <c r="I43" s="34" t="s">
+      <c r="I43" s="31" t="s">
         <v>17</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
       <c r="O43" s="7">
         <v>0.13919999999999999</v>
       </c>
@@ -3512,15 +3512,15 @@
       <c r="R43" s="7">
         <v>0.61070000000000002</v>
       </c>
-      <c r="S43" s="36"/>
+      <c r="S43" s="33"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="2">
         <v>0.30909999999999999</v>
       </c>
@@ -3533,17 +3533,17 @@
       <c r="H44" s="2">
         <v>0.43209999999999998</v>
       </c>
-      <c r="I44" s="35"/>
+      <c r="I44" s="32"/>
       <c r="K44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L44" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M44" s="31">
+      <c r="L44" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M44" s="34">
         <v>0.27460000000000001</v>
       </c>
-      <c r="N44" s="31" t="s">
+      <c r="N44" s="34" t="s">
         <v>15</v>
       </c>
       <c r="O44" s="4">
@@ -3558,7 +3558,7 @@
       <c r="R44" s="4">
         <v>0.72119999999999995</v>
       </c>
-      <c r="S44" s="34" t="s">
+      <c r="S44" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3566,9 +3566,9 @@
       <c r="A45" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="2">
         <v>0.1467</v>
       </c>
@@ -3581,13 +3581,13 @@
       <c r="H45" s="2">
         <v>0.3004</v>
       </c>
-      <c r="I45" s="35"/>
+      <c r="I45" s="32"/>
       <c r="K45" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
       <c r="O45" s="11">
         <v>0.47370000000000001</v>
       </c>
@@ -3600,15 +3600,15 @@
       <c r="R45" s="11">
         <v>0.67169999999999996</v>
       </c>
-      <c r="S45" s="38"/>
+      <c r="S45" s="39"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="2">
         <v>0.35139999999999999</v>
       </c>
@@ -3621,17 +3621,17 @@
       <c r="H46" s="2">
         <v>0.39150000000000001</v>
       </c>
-      <c r="I46" s="35"/>
+      <c r="I46" s="32"/>
       <c r="K46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L46" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M46" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="N46" s="31">
+      <c r="L46" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M46" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" s="34">
         <v>0.51919999999999999</v>
       </c>
       <c r="O46" s="4">
@@ -3646,7 +3646,7 @@
       <c r="R46" s="4">
         <v>0.74870000000000003</v>
       </c>
-      <c r="S46" s="34" t="s">
+      <c r="S46" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3654,9 +3654,9 @@
       <c r="A47" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="2">
         <v>0.24529999999999999</v>
       </c>
@@ -3669,13 +3669,13 @@
       <c r="H47" s="2">
         <v>0.36170000000000002</v>
       </c>
-      <c r="I47" s="35"/>
+      <c r="I47" s="32"/>
       <c r="K47" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
       <c r="O47" s="2">
         <v>0.33329999999999999</v>
       </c>
@@ -3688,15 +3688,15 @@
       <c r="R47" s="2">
         <v>0.7006</v>
       </c>
-      <c r="S47" s="35"/>
+      <c r="S47" s="32"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
       <c r="E48" s="7">
         <v>0.13730000000000001</v>
       </c>
@@ -3709,13 +3709,13 @@
       <c r="H48" s="7">
         <v>0.28129999999999999</v>
       </c>
-      <c r="I48" s="36"/>
+      <c r="I48" s="33"/>
       <c r="K48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
       <c r="O48" s="2">
         <v>0.38140000000000002</v>
       </c>
@@ -3728,19 +3728,19 @@
       <c r="R48" s="2">
         <v>0.64800000000000002</v>
       </c>
-      <c r="S48" s="35"/>
+      <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="31">
+      <c r="B49" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="34">
         <v>0.26960000000000001</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="4">
@@ -3755,15 +3755,15 @@
       <c r="H49" s="4">
         <v>0.4284</v>
       </c>
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="31" t="s">
         <v>20</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
       <c r="O49" s="2">
         <v>0.26529999999999998</v>
       </c>
@@ -3776,15 +3776,15 @@
       <c r="R49" s="2">
         <v>0.62239999999999995</v>
       </c>
-      <c r="S49" s="35"/>
+      <c r="S49" s="32"/>
     </row>
     <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="11">
         <v>0.2727</v>
       </c>
@@ -3797,13 +3797,13 @@
       <c r="H50" s="11">
         <v>0.48770000000000002</v>
       </c>
-      <c r="I50" s="38"/>
+      <c r="I50" s="39"/>
       <c r="K50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
       <c r="O50" s="2">
         <v>0.21049999999999999</v>
       </c>
@@ -3816,19 +3816,19 @@
       <c r="R50" s="2">
         <v>0.65539999999999998</v>
       </c>
-      <c r="S50" s="35"/>
+      <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="31">
+      <c r="B51" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="34">
         <v>0.57989999999999997</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="4">
@@ -3843,15 +3843,15 @@
       <c r="H51" s="4">
         <v>0.5454</v>
       </c>
-      <c r="I51" s="34" t="s">
+      <c r="I51" s="31" t="s">
         <v>25</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="37"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="40"/>
       <c r="O51" s="11">
         <v>0.14810000000000001</v>
       </c>
@@ -3864,15 +3864,15 @@
       <c r="R51" s="11">
         <v>0.67810000000000004</v>
       </c>
-      <c r="S51" s="38"/>
+      <c r="S51" s="39"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="2">
         <v>0.33329999999999999</v>
       </c>
@@ -3885,17 +3885,17 @@
       <c r="H52" s="2">
         <v>0.61570000000000003</v>
       </c>
-      <c r="I52" s="35"/>
+      <c r="I52" s="32"/>
       <c r="K52" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L52" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M52" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="N52" s="31">
+      <c r="L52" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M52" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N52" s="34">
         <v>0.59079999999999999</v>
       </c>
       <c r="O52" s="4">
@@ -3910,7 +3910,7 @@
       <c r="R52" s="4">
         <v>0.65849999999999997</v>
       </c>
-      <c r="S52" s="34" t="s">
+      <c r="S52" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3918,9 +3918,9 @@
       <c r="A53" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
       <c r="E53" s="2">
         <v>0.2203</v>
       </c>
@@ -3933,13 +3933,13 @@
       <c r="H53" s="2">
         <v>0.4919</v>
       </c>
-      <c r="I53" s="35"/>
+      <c r="I53" s="32"/>
       <c r="K53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
       <c r="O53" s="2">
         <v>0.1275</v>
       </c>
@@ -3952,15 +3952,15 @@
       <c r="R53" s="2">
         <v>0.64849999999999997</v>
       </c>
-      <c r="S53" s="35"/>
+      <c r="S53" s="32"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="2">
         <v>0.12620000000000001</v>
       </c>
@@ -3973,13 +3973,13 @@
       <c r="H54" s="2">
         <v>0.58579999999999999</v>
       </c>
-      <c r="I54" s="35"/>
+      <c r="I54" s="32"/>
       <c r="K54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
       <c r="O54" s="2">
         <v>0.12089999999999999</v>
       </c>
@@ -3992,15 +3992,15 @@
       <c r="R54" s="2">
         <v>0.6048</v>
       </c>
-      <c r="S54" s="35"/>
+      <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
       <c r="E55" s="7">
         <v>4.5499999999999999E-2</v>
       </c>
@@ -4013,13 +4013,13 @@
       <c r="H55" s="7">
         <v>0.66210000000000002</v>
       </c>
-      <c r="I55" s="36"/>
+      <c r="I55" s="33"/>
       <c r="K55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
       <c r="O55" s="7">
         <v>0.1011</v>
       </c>
@@ -4032,19 +4032,19 @@
       <c r="R55" s="7">
         <v>0.64959999999999996</v>
       </c>
-      <c r="S55" s="36"/>
+      <c r="S55" s="33"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="31">
+      <c r="B56" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="34">
         <v>0.69620000000000004</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E56" s="4">
@@ -4059,19 +4059,19 @@
       <c r="H56" s="4">
         <v>0.51419999999999999</v>
       </c>
-      <c r="I56" s="34" t="s">
+      <c r="I56" s="31" t="s">
         <v>27</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L56" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M56" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="N56" s="31">
+      <c r="L56" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M56" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N56" s="34">
         <v>0.57720000000000005</v>
       </c>
       <c r="O56" s="4">
@@ -4086,7 +4086,7 @@
       <c r="R56" s="4">
         <v>0.70299999999999996</v>
       </c>
-      <c r="S56" s="34" t="s">
+      <c r="S56" s="31" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4094,9 +4094,9 @@
       <c r="A57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
       <c r="E57" s="2">
         <v>0.1176</v>
       </c>
@@ -4109,13 +4109,13 @@
       <c r="H57" s="2">
         <v>0.58540000000000003</v>
       </c>
-      <c r="I57" s="35"/>
+      <c r="I57" s="32"/>
       <c r="K57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
       <c r="O57" s="2">
         <v>8.5000000000000006E-2</v>
       </c>
@@ -4128,15 +4128,15 @@
       <c r="R57" s="2">
         <v>0.65200000000000002</v>
       </c>
-      <c r="S57" s="35"/>
+      <c r="S57" s="32"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
       <c r="E58" s="2">
         <v>0.2</v>
       </c>
@@ -4149,13 +4149,13 @@
       <c r="H58" s="2">
         <v>0.61980000000000002</v>
       </c>
-      <c r="I58" s="35"/>
+      <c r="I58" s="32"/>
       <c r="K58" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
       <c r="O58" s="2">
         <v>0.1011</v>
       </c>
@@ -4168,15 +4168,15 @@
       <c r="R58" s="2">
         <v>0.6048</v>
       </c>
-      <c r="S58" s="35"/>
+      <c r="S58" s="32"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
       <c r="E59" s="2">
         <v>7.6899999999999996E-2</v>
       </c>
@@ -4189,13 +4189,13 @@
       <c r="H59" s="2">
         <v>0.5504</v>
       </c>
-      <c r="I59" s="35"/>
+      <c r="I59" s="32"/>
       <c r="K59" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
       <c r="O59" s="2">
         <v>0.5</v>
       </c>
@@ -4208,15 +4208,15 @@
       <c r="R59" s="2">
         <v>0.58550000000000002</v>
       </c>
-      <c r="S59" s="35"/>
+      <c r="S59" s="32"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
       <c r="E60" s="2">
         <v>0.16669999999999999</v>
       </c>
@@ -4229,13 +4229,13 @@
       <c r="H60" s="2">
         <v>0.68359999999999999</v>
       </c>
-      <c r="I60" s="35"/>
+      <c r="I60" s="32"/>
       <c r="K60" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
       <c r="O60" s="7">
         <v>0.1429</v>
       </c>
@@ -4248,15 +4248,15 @@
       <c r="R60" s="7">
         <v>0.65280000000000005</v>
       </c>
-      <c r="S60" s="36"/>
+      <c r="S60" s="33"/>
     </row>
     <row r="61" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
       <c r="E61" s="7">
         <v>0.1429</v>
       </c>
@@ -4269,17 +4269,17 @@
       <c r="H61" s="7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="I61" s="36"/>
+      <c r="I61" s="33"/>
       <c r="K61" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L61" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M61" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="N61" s="31">
+      <c r="L61" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M61" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N61" s="34">
         <v>0.54379999999999995</v>
       </c>
       <c r="O61" s="4">
@@ -4294,7 +4294,7 @@
       <c r="R61" s="4">
         <v>0.66249999999999998</v>
       </c>
-      <c r="S61" s="34" t="s">
+      <c r="S61" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4302,13 +4302,13 @@
       <c r="A62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="31">
+      <c r="B62" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="34">
         <v>0.56689999999999996</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E62" s="4">
@@ -4323,15 +4323,15 @@
       <c r="H62" s="4">
         <v>0.62460000000000004</v>
       </c>
-      <c r="I62" s="34" t="s">
+      <c r="I62" s="31" t="s">
         <v>28</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L62" s="32"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
       <c r="O62" s="2">
         <v>0.29170000000000001</v>
       </c>
@@ -4344,15 +4344,15 @@
       <c r="R62" s="2">
         <v>0.69059999999999999</v>
       </c>
-      <c r="S62" s="35"/>
+      <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
       <c r="E63" s="2">
         <v>0.157</v>
       </c>
@@ -4365,13 +4365,13 @@
       <c r="H63" s="2">
         <v>0.63759999999999994</v>
       </c>
-      <c r="I63" s="35"/>
+      <c r="I63" s="32"/>
       <c r="K63" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
       <c r="O63" s="2">
         <v>0.23480000000000001</v>
       </c>
@@ -4384,15 +4384,15 @@
       <c r="R63" s="2">
         <v>0.60540000000000005</v>
       </c>
-      <c r="S63" s="35"/>
+      <c r="S63" s="32"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
       <c r="E64" s="2">
         <v>0.22670000000000001</v>
       </c>
@@ -4405,13 +4405,13 @@
       <c r="H64" s="2">
         <v>0.59250000000000003</v>
       </c>
-      <c r="I64" s="35"/>
+      <c r="I64" s="32"/>
       <c r="K64" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
       <c r="O64" s="2">
         <v>0.18679999999999999</v>
       </c>
@@ -4424,15 +4424,15 @@
       <c r="R64" s="2">
         <v>0.61709999999999998</v>
       </c>
-      <c r="S64" s="35"/>
+      <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
       <c r="E65" s="2">
         <v>9.4700000000000006E-2</v>
       </c>
@@ -4445,13 +4445,13 @@
       <c r="H65" s="2">
         <v>0.60389999999999999</v>
       </c>
-      <c r="I65" s="35"/>
+      <c r="I65" s="32"/>
       <c r="K65" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="33"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
       <c r="O65" s="7">
         <v>0.13919999999999999</v>
       </c>
@@ -4464,15 +4464,15 @@
       <c r="R65" s="7">
         <v>0.61070000000000002</v>
       </c>
-      <c r="S65" s="36"/>
+      <c r="S65" s="33"/>
     </row>
     <row r="66" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
       <c r="E66" s="11">
         <v>0.6</v>
       </c>
@@ -4485,17 +4485,17 @@
       <c r="H66" s="11">
         <v>0.63390000000000002</v>
       </c>
-      <c r="I66" s="38"/>
+      <c r="I66" s="39"/>
       <c r="K66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L66" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="M66" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="N66" s="31">
+      <c r="L66" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M66" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N66" s="34">
         <v>0.27460000000000001</v>
       </c>
       <c r="O66" s="4">
@@ -4510,7 +4510,7 @@
       <c r="R66" s="4">
         <v>0.72119999999999995</v>
       </c>
-      <c r="S66" s="34" t="s">
+      <c r="S66" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4518,13 +4518,13 @@
       <c r="A67" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="31">
+      <c r="B67" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="34">
         <v>0.47689999999999999</v>
       </c>
       <c r="E67" s="4">
@@ -4539,15 +4539,15 @@
       <c r="H67" s="4">
         <v>0.70120000000000005</v>
       </c>
-      <c r="I67" s="34" t="s">
+      <c r="I67" s="31" t="s">
         <v>12</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="33"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
       <c r="O67" s="7">
         <v>0.47370000000000001</v>
       </c>
@@ -4560,15 +4560,15 @@
       <c r="R67" s="7">
         <v>0.67169999999999996</v>
       </c>
-      <c r="S67" s="36"/>
+      <c r="S67" s="33"/>
     </row>
     <row r="68" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
       <c r="E68" s="7">
         <v>0.1333</v>
       </c>
@@ -4581,19 +4581,19 @@
       <c r="H68" s="7">
         <v>0.69359999999999999</v>
       </c>
-      <c r="I68" s="36"/>
+      <c r="I68" s="33"/>
     </row>
     <row r="69" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="31">
+      <c r="B69" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="34">
         <v>0.50770000000000004</v>
       </c>
       <c r="E69" s="4">
@@ -4608,7 +4608,7 @@
       <c r="H69" s="4">
         <v>0.6401</v>
       </c>
-      <c r="I69" s="34" t="s">
+      <c r="I69" s="31" t="s">
         <v>14</v>
       </c>
       <c r="K69" s="8" t="s">
@@ -4643,9 +4643,9 @@
       <c r="A70" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
       <c r="E70" s="2">
         <v>0.18640000000000001</v>
       </c>
@@ -4658,17 +4658,17 @@
       <c r="H70" s="2">
         <v>0.73419999999999996</v>
       </c>
-      <c r="I70" s="35"/>
+      <c r="I70" s="32"/>
       <c r="K70" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L70" s="31">
+      <c r="L70" s="34">
         <v>0.42630000000000001</v>
       </c>
-      <c r="M70" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="N70" s="31" t="s">
+      <c r="M70" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N70" s="34" t="s">
         <v>15</v>
       </c>
       <c r="O70" s="4">
@@ -4683,7 +4683,7 @@
       <c r="R70" s="4">
         <v>-1E-4</v>
       </c>
-      <c r="S70" s="34" t="s">
+      <c r="S70" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4691,9 +4691,9 @@
       <c r="A71" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
       <c r="E71" s="2">
         <v>0.1358</v>
       </c>
@@ -4706,13 +4706,13 @@
       <c r="H71" s="2">
         <v>0.73089999999999999</v>
       </c>
-      <c r="I71" s="35"/>
+      <c r="I71" s="32"/>
       <c r="K71" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L71" s="32"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
       <c r="O71" s="2">
         <v>5.9900000000000002E-2</v>
       </c>
@@ -4725,15 +4725,15 @@
       <c r="R71" s="2">
         <v>1.18E-2</v>
       </c>
-      <c r="S71" s="35"/>
+      <c r="S71" s="32"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
       <c r="E72" s="2">
         <v>0.1351</v>
       </c>
@@ -4746,13 +4746,13 @@
       <c r="H72" s="2">
         <v>0.67910000000000004</v>
       </c>
-      <c r="I72" s="35"/>
+      <c r="I72" s="32"/>
       <c r="K72" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
       <c r="O72" s="2">
         <v>0.54100000000000004</v>
       </c>
@@ -4765,15 +4765,15 @@
       <c r="R72" s="2">
         <v>1.66E-2</v>
       </c>
-      <c r="S72" s="35"/>
+      <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
       <c r="E73" s="7">
         <v>0.6</v>
       </c>
@@ -4786,13 +4786,13 @@
       <c r="H73" s="7">
         <v>0.4657</v>
       </c>
-      <c r="I73" s="36"/>
+      <c r="I73" s="33"/>
       <c r="K73" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L73" s="33"/>
-      <c r="M73" s="33"/>
-      <c r="N73" s="33"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
       <c r="O73" s="7">
         <v>0.375</v>
       </c>
@@ -4805,19 +4805,19 @@
       <c r="R73" s="7">
         <v>0.1573</v>
       </c>
-      <c r="S73" s="36"/>
+      <c r="S73" s="33"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="31">
+      <c r="B74" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="34">
         <v>0.50239999999999996</v>
       </c>
       <c r="E74" s="4">
@@ -4832,19 +4832,19 @@
       <c r="H74" s="4">
         <v>0.69550000000000001</v>
       </c>
-      <c r="I74" s="34" t="s">
+      <c r="I74" s="31" t="s">
         <v>17</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L74" s="31">
+      <c r="L74" s="34">
         <v>0.43269999999999997</v>
       </c>
-      <c r="M74" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="N74" s="31" t="s">
+      <c r="M74" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N74" s="34" t="s">
         <v>15</v>
       </c>
       <c r="O74" s="4">
@@ -4859,7 +4859,7 @@
       <c r="R74" s="4">
         <v>0.01</v>
       </c>
-      <c r="S74" s="34" t="s">
+      <c r="S74" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4867,9 +4867,9 @@
       <c r="A75" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
       <c r="E75" s="2">
         <v>0.2</v>
       </c>
@@ -4882,13 +4882,13 @@
       <c r="H75" s="2">
         <v>0.63749999999999996</v>
       </c>
-      <c r="I75" s="35"/>
+      <c r="I75" s="32"/>
       <c r="K75" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L75" s="32"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="32"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
       <c r="O75" s="2">
         <v>0.1923</v>
       </c>
@@ -4901,15 +4901,15 @@
       <c r="R75" s="2">
         <v>9.8900000000000002E-2</v>
       </c>
-      <c r="S75" s="35"/>
+      <c r="S75" s="32"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
       <c r="E76" s="2">
         <v>0.1053</v>
       </c>
@@ -4922,13 +4922,13 @@
       <c r="H76" s="2">
         <v>0.74609999999999999</v>
       </c>
-      <c r="I76" s="35"/>
+      <c r="I76" s="32"/>
       <c r="K76" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L76" s="32"/>
-      <c r="M76" s="32"/>
-      <c r="N76" s="32"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
       <c r="O76" s="2">
         <v>0.49209999999999998</v>
       </c>
@@ -4941,15 +4941,15 @@
       <c r="R76" s="2">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="S76" s="35"/>
+      <c r="S76" s="32"/>
     </row>
     <row r="77" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
       <c r="E77" s="7">
         <v>0.48149999999999998</v>
       </c>
@@ -4962,13 +4962,13 @@
       <c r="H77" s="7">
         <v>0.61209999999999998</v>
       </c>
-      <c r="I77" s="36"/>
+      <c r="I77" s="33"/>
       <c r="K77" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L77" s="32"/>
-      <c r="M77" s="32"/>
-      <c r="N77" s="32"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
       <c r="O77" s="2">
         <v>0.42420000000000002</v>
       </c>
@@ -4981,19 +4981,19 @@
       <c r="R77" s="2">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="S77" s="35"/>
+      <c r="S77" s="32"/>
     </row>
     <row r="78" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="31">
+      <c r="B78" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="34">
         <v>0.307</v>
       </c>
       <c r="E78" s="4">
@@ -5008,15 +5008,15 @@
       <c r="H78" s="4">
         <v>0.83509999999999995</v>
       </c>
-      <c r="I78" s="34" t="s">
+      <c r="I78" s="31" t="s">
         <v>20</v>
       </c>
       <c r="K78" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="33"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
       <c r="O78" s="7">
         <v>0.45450000000000002</v>
       </c>
@@ -5029,15 +5029,15 @@
       <c r="R78" s="7">
         <v>2.52E-2</v>
       </c>
-      <c r="S78" s="36"/>
+      <c r="S78" s="33"/>
     </row>
     <row r="79" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
       <c r="E79" s="7">
         <v>0.2157</v>
       </c>
@@ -5050,17 +5050,17 @@
       <c r="H79" s="7">
         <v>0.81869999999999998</v>
       </c>
-      <c r="I79" s="36"/>
+      <c r="I79" s="33"/>
       <c r="K79" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L79" s="31">
+      <c r="L79" s="34">
         <v>0.41649999999999998</v>
       </c>
-      <c r="M79" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="N79" s="31" t="s">
+      <c r="M79" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N79" s="34" t="s">
         <v>15</v>
       </c>
       <c r="O79" s="4">
@@ -5075,7 +5075,7 @@
       <c r="R79" s="4">
         <v>1.11E-2</v>
       </c>
-      <c r="S79" s="34" t="s">
+      <c r="S79" s="31" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5083,13 +5083,13 @@
       <c r="A80" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="31">
+      <c r="B80" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="34">
         <v>0.59140000000000004</v>
       </c>
       <c r="E80" s="4">
@@ -5104,15 +5104,15 @@
       <c r="H80" s="4">
         <v>0.54610000000000003</v>
       </c>
-      <c r="I80" s="34" t="s">
+      <c r="I80" s="31" t="s">
         <v>25</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L80" s="32"/>
-      <c r="M80" s="32"/>
-      <c r="N80" s="32"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
       <c r="O80" s="2">
         <v>0.1444</v>
       </c>
@@ -5125,15 +5125,15 @@
       <c r="R80" s="2">
         <v>0.01</v>
       </c>
-      <c r="S80" s="35"/>
+      <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
       <c r="E81" s="2">
         <v>0.19439999999999999</v>
       </c>
@@ -5146,13 +5146,13 @@
       <c r="H81" s="2">
         <v>0.5373</v>
       </c>
-      <c r="I81" s="35"/>
+      <c r="I81" s="32"/>
       <c r="K81" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
       <c r="O81" s="11">
         <v>0.13639999999999999</v>
       </c>
@@ -5165,15 +5165,15 @@
       <c r="R81" s="11">
         <v>-1E-4</v>
       </c>
-      <c r="S81" s="38"/>
+      <c r="S81" s="39"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
       <c r="E82" s="2">
         <v>0.31709999999999999</v>
       </c>
@@ -5186,17 +5186,17 @@
       <c r="H82" s="2">
         <v>0.4753</v>
       </c>
-      <c r="I82" s="35"/>
+      <c r="I82" s="32"/>
       <c r="K82" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L82" s="31">
+      <c r="L82" s="34">
         <v>0.436</v>
       </c>
-      <c r="M82" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="N82" s="31" t="s">
+      <c r="M82" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N82" s="34" t="s">
         <v>15</v>
       </c>
       <c r="O82" s="4">
@@ -5211,7 +5211,7 @@
       <c r="R82" s="4">
         <v>0.52270000000000005</v>
       </c>
-      <c r="S82" s="34" t="s">
+      <c r="S82" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5219,9 +5219,9 @@
       <c r="A83" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="32"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
       <c r="E83" s="2">
         <v>0.2</v>
       </c>
@@ -5234,13 +5234,13 @@
       <c r="H83" s="2">
         <v>0.57569999999999999</v>
       </c>
-      <c r="I83" s="35"/>
+      <c r="I83" s="32"/>
       <c r="K83" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L83" s="32"/>
-      <c r="M83" s="32"/>
-      <c r="N83" s="32"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
       <c r="O83" s="2">
         <v>0.18859999999999999</v>
       </c>
@@ -5253,15 +5253,15 @@
       <c r="R83" s="2">
         <v>0.56950000000000001</v>
       </c>
-      <c r="S83" s="35"/>
+      <c r="S83" s="32"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
       <c r="E84" s="2">
         <v>0.12620000000000001</v>
       </c>
@@ -5274,13 +5274,13 @@
       <c r="H84" s="2">
         <v>0.59219999999999995</v>
       </c>
-      <c r="I84" s="35"/>
+      <c r="I84" s="32"/>
       <c r="K84" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
       <c r="O84" s="2">
         <v>0.2059</v>
       </c>
@@ -5293,15 +5293,15 @@
       <c r="R84" s="2">
         <v>0.68389999999999995</v>
       </c>
-      <c r="S84" s="35"/>
+      <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
       <c r="E85" s="2">
         <v>0.15659999999999999</v>
       </c>
@@ -5314,13 +5314,13 @@
       <c r="H85" s="2">
         <v>0.7</v>
       </c>
-      <c r="I85" s="35"/>
+      <c r="I85" s="32"/>
       <c r="K85" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L85" s="32"/>
-      <c r="M85" s="32"/>
-      <c r="N85" s="32"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
       <c r="O85" s="2">
         <v>0.26419999999999999</v>
       </c>
@@ -5333,15 +5333,15 @@
       <c r="R85" s="2">
         <v>0.62039999999999995</v>
       </c>
-      <c r="S85" s="35"/>
+      <c r="S85" s="32"/>
     </row>
     <row r="86" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
       <c r="E86" s="7">
         <v>0.25</v>
       </c>
@@ -5354,13 +5354,13 @@
       <c r="H86" s="7">
         <v>0.61939999999999995</v>
       </c>
-      <c r="I86" s="36"/>
+      <c r="I86" s="33"/>
       <c r="K86" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L86" s="32"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
       <c r="O86" s="2">
         <v>0.60870000000000002</v>
       </c>
@@ -5373,19 +5373,19 @@
       <c r="R86" s="2">
         <v>0.65239999999999998</v>
       </c>
-      <c r="S86" s="35"/>
+      <c r="S86" s="32"/>
     </row>
     <row r="87" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="31">
+      <c r="B87" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="34">
         <v>0.69159999999999999</v>
       </c>
       <c r="E87" s="4">
@@ -5400,15 +5400,15 @@
       <c r="H87" s="4">
         <v>0.59589999999999999</v>
       </c>
-      <c r="I87" s="34" t="s">
+      <c r="I87" s="31" t="s">
         <v>27</v>
       </c>
       <c r="K87" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L87" s="33"/>
-      <c r="M87" s="33"/>
-      <c r="N87" s="33"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
       <c r="O87" s="7">
         <v>0.30430000000000001</v>
       </c>
@@ -5421,15 +5421,15 @@
       <c r="R87" s="7">
         <v>0.55220000000000002</v>
       </c>
-      <c r="S87" s="36"/>
+      <c r="S87" s="33"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
       <c r="E88" s="2">
         <v>0.15790000000000001</v>
       </c>
@@ -5442,17 +5442,17 @@
       <c r="H88" s="2">
         <v>0.60570000000000002</v>
       </c>
-      <c r="I88" s="35"/>
+      <c r="I88" s="32"/>
       <c r="K88" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L88" s="43">
+      <c r="L88" s="38">
         <v>0.38790000000000002</v>
       </c>
-      <c r="M88" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="N88" s="43" t="s">
+      <c r="M88" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="N88" s="38" t="s">
         <v>15</v>
       </c>
       <c r="O88" s="22">
@@ -5467,7 +5467,7 @@
       <c r="R88" s="22">
         <v>0.1366</v>
       </c>
-      <c r="S88" s="42" t="s">
+      <c r="S88" s="37" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5475,9 +5475,9 @@
       <c r="A89" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
       <c r="E89" s="2">
         <v>6.25E-2</v>
       </c>
@@ -5490,13 +5490,13 @@
       <c r="H89" s="2">
         <v>0.53059999999999996</v>
       </c>
-      <c r="I89" s="35"/>
+      <c r="I89" s="32"/>
       <c r="K89" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L89" s="32"/>
-      <c r="M89" s="32"/>
-      <c r="N89" s="32"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
       <c r="O89" s="2">
         <v>0.32500000000000001</v>
       </c>
@@ -5509,15 +5509,15 @@
       <c r="R89" s="2">
         <v>0.27629999999999999</v>
       </c>
-      <c r="S89" s="35"/>
+      <c r="S89" s="32"/>
     </row>
     <row r="90" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
       <c r="E90" s="7">
         <v>0.1</v>
       </c>
@@ -5530,13 +5530,13 @@
       <c r="H90" s="7">
         <v>0.4859</v>
       </c>
-      <c r="I90" s="36"/>
+      <c r="I90" s="33"/>
       <c r="K90" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L90" s="32"/>
-      <c r="M90" s="32"/>
-      <c r="N90" s="32"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
       <c r="O90" s="2">
         <v>0.47370000000000001</v>
       </c>
@@ -5549,19 +5549,19 @@
       <c r="R90" s="2">
         <v>0.27210000000000001</v>
       </c>
-      <c r="S90" s="35"/>
+      <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="31">
+      <c r="B91" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="34">
         <v>0.49740000000000001</v>
       </c>
       <c r="E91" s="4">
@@ -5576,15 +5576,15 @@
       <c r="H91" s="4">
         <v>0.58509999999999995</v>
       </c>
-      <c r="I91" s="34" t="s">
+      <c r="I91" s="31" t="s">
         <v>28</v>
       </c>
       <c r="K91" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L91" s="33"/>
-      <c r="M91" s="33"/>
-      <c r="N91" s="33"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
       <c r="O91" s="7">
         <v>0.2069</v>
       </c>
@@ -5597,15 +5597,15 @@
       <c r="R91" s="7">
         <v>0.1457</v>
       </c>
-      <c r="S91" s="36"/>
+      <c r="S91" s="33"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
       <c r="E92" s="2">
         <v>0.32479999999999998</v>
       </c>
@@ -5618,15 +5618,15 @@
       <c r="H92" s="2">
         <v>0.58930000000000005</v>
       </c>
-      <c r="I92" s="35"/>
+      <c r="I92" s="32"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
       <c r="E93" s="2">
         <v>0.2051</v>
       </c>
@@ -5639,15 +5639,15 @@
       <c r="H93" s="2">
         <v>0.66920000000000002</v>
       </c>
-      <c r="I93" s="35"/>
+      <c r="I93" s="32"/>
     </row>
     <row r="94" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
       <c r="E94" s="7">
         <v>0.2</v>
       </c>
@@ -5660,7 +5660,7 @@
       <c r="H94" s="7">
         <v>0.59130000000000005</v>
       </c>
-      <c r="I94" s="36"/>
+      <c r="I94" s="33"/>
     </row>
     <row r="95" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="96" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5696,13 +5696,13 @@
       <c r="A97" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B97" s="31">
+      <c r="B97" s="34">
         <v>0.62490000000000001</v>
       </c>
-      <c r="C97" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="31" t="s">
+      <c r="C97" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E97" s="4">
@@ -5717,7 +5717,7 @@
       <c r="H97" s="4">
         <v>0.34320000000000001</v>
       </c>
-      <c r="I97" s="34" t="s">
+      <c r="I97" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5725,9 +5725,9 @@
       <c r="A98" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
       <c r="E98" s="2">
         <v>0.27710000000000001</v>
       </c>
@@ -5740,15 +5740,15 @@
       <c r="H98" s="2">
         <v>0.44640000000000002</v>
       </c>
-      <c r="I98" s="35"/>
+      <c r="I98" s="32"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
       <c r="E99" s="2">
         <v>0.15690000000000001</v>
       </c>
@@ -5761,15 +5761,15 @@
       <c r="H99" s="2">
         <v>0.39900000000000002</v>
       </c>
-      <c r="I99" s="35"/>
+      <c r="I99" s="32"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
       <c r="E100" s="2">
         <v>0.1148</v>
       </c>
@@ -5782,15 +5782,15 @@
       <c r="H100" s="2">
         <v>0.43269999999999997</v>
       </c>
-      <c r="I100" s="35"/>
+      <c r="I100" s="32"/>
     </row>
     <row r="101" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="33"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
       <c r="E101" s="7">
         <v>9.8900000000000002E-2</v>
       </c>
@@ -5803,19 +5803,19 @@
       <c r="H101" s="7">
         <v>0.4224</v>
       </c>
-      <c r="I101" s="36"/>
+      <c r="I101" s="33"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="31">
+      <c r="B102" s="34">
         <v>0.42870000000000003</v>
       </c>
-      <c r="C102" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="31" t="s">
+      <c r="C102" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E102" s="4">
@@ -5830,7 +5830,7 @@
       <c r="H102" s="4">
         <v>0.30409999999999998</v>
       </c>
-      <c r="I102" s="34" t="s">
+      <c r="I102" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5838,9 +5838,9 @@
       <c r="A103" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
       <c r="E103" s="2">
         <v>0.1333</v>
       </c>
@@ -5853,15 +5853,15 @@
       <c r="H103" s="2">
         <v>0.42299999999999999</v>
       </c>
-      <c r="I103" s="35"/>
+      <c r="I103" s="32"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
       <c r="E104" s="7">
         <v>0.14849999999999999</v>
       </c>
@@ -5874,19 +5874,19 @@
       <c r="H104" s="7">
         <v>0.41439999999999999</v>
       </c>
-      <c r="I104" s="36"/>
+      <c r="I104" s="33"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B105" s="31">
+      <c r="B105" s="34">
         <v>0.43969999999999998</v>
       </c>
-      <c r="C105" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="31" t="s">
+      <c r="C105" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="4">
@@ -5901,7 +5901,7 @@
       <c r="H105" s="4">
         <v>0.31680000000000003</v>
       </c>
-      <c r="I105" s="34" t="s">
+      <c r="I105" s="31" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5909,9 +5909,9 @@
       <c r="A106" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
       <c r="E106" s="2">
         <v>0.17460000000000001</v>
       </c>
@@ -5924,15 +5924,15 @@
       <c r="H106" s="2">
         <v>0.40329999999999999</v>
       </c>
-      <c r="I106" s="35"/>
+      <c r="I106" s="32"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
       <c r="E107" s="2">
         <v>0.25</v>
       </c>
@@ -5945,15 +5945,15 @@
       <c r="H107" s="2">
         <v>0.46079999999999999</v>
       </c>
-      <c r="I107" s="35"/>
+      <c r="I107" s="32"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
       <c r="E108" s="7">
         <v>0.3846</v>
       </c>
@@ -5966,7 +5966,7 @@
       <c r="H108" s="7">
         <v>0.37169999999999997</v>
       </c>
-      <c r="I108" s="36"/>
+      <c r="I108" s="33"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="23" t="s">
@@ -6001,13 +6001,13 @@
       <c r="A110" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B110" s="31">
+      <c r="B110" s="34">
         <v>0.4123</v>
       </c>
-      <c r="C110" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="31" t="s">
+      <c r="C110" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E110" s="4">
@@ -6022,7 +6022,7 @@
       <c r="H110" s="4">
         <v>0.3871</v>
       </c>
-      <c r="I110" s="34" t="s">
+      <c r="I110" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6030,9 +6030,9 @@
       <c r="A111" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B111" s="32"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="32"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="35"/>
       <c r="E111" s="2">
         <v>0.3871</v>
       </c>
@@ -6045,15 +6045,15 @@
       <c r="H111" s="2">
         <v>0.43519999999999998</v>
       </c>
-      <c r="I111" s="35"/>
+      <c r="I111" s="32"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="32"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="32"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="35"/>
       <c r="E112" s="2">
         <v>0.1429</v>
       </c>
@@ -6066,15 +6066,15 @@
       <c r="H112" s="2">
         <v>0.3987</v>
       </c>
-      <c r="I112" s="35"/>
+      <c r="I112" s="32"/>
     </row>
     <row r="113" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="37"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="37"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="40"/>
       <c r="E113" s="11">
         <v>0.47370000000000001</v>
       </c>
@@ -6087,7 +6087,7 @@
       <c r="H113" s="11">
         <v>0.42459999999999998</v>
       </c>
-      <c r="I113" s="38"/>
+      <c r="I113" s="39"/>
     </row>
     <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="23" t="s">
@@ -6122,13 +6122,13 @@
       <c r="A115" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B115" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115" s="31">
+      <c r="B115" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="34">
         <v>0.43409999999999999</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E115" s="4">
@@ -6143,7 +6143,7 @@
       <c r="H115" s="4">
         <v>-4.7999999999999996E-3</v>
       </c>
-      <c r="I115" s="34" t="s">
+      <c r="I115" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6151,9 +6151,9 @@
       <c r="A116" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="32"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="32"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
       <c r="E116" s="2">
         <v>0.25419999999999998</v>
       </c>
@@ -6166,15 +6166,15 @@
       <c r="H116" s="2">
         <v>-2.4400000000000002E-2</v>
       </c>
-      <c r="I116" s="35"/>
+      <c r="I116" s="32"/>
     </row>
     <row r="117" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B117" s="33"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="36"/>
       <c r="E117" s="7">
         <v>0.46939999999999998</v>
       </c>
@@ -6187,19 +6187,19 @@
       <c r="H117" s="7">
         <v>-6.8999999999999999E-3</v>
       </c>
-      <c r="I117" s="36"/>
+      <c r="I117" s="33"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C118" s="31">
+      <c r="B118" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" s="34">
         <v>0.4194</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E118" s="4">
@@ -6214,7 +6214,7 @@
       <c r="H118" s="4">
         <v>-6.4000000000000003E-3</v>
       </c>
-      <c r="I118" s="34" t="s">
+      <c r="I118" s="31" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6222,9 +6222,9 @@
       <c r="A119" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
       <c r="E119" s="2">
         <v>0.125</v>
       </c>
@@ -6237,15 +6237,15 @@
       <c r="H119" s="2">
         <v>-5.7999999999999996E-3</v>
       </c>
-      <c r="I119" s="35"/>
+      <c r="I119" s="32"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="35"/>
       <c r="E120" s="2">
         <v>0.5</v>
       </c>
@@ -6258,15 +6258,15 @@
       <c r="H120" s="2">
         <v>-2.06E-2</v>
       </c>
-      <c r="I120" s="35"/>
+      <c r="I120" s="32"/>
     </row>
     <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B121" s="33"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
       <c r="E121" s="7">
         <v>0.375</v>
       </c>
@@ -6279,19 +6279,19 @@
       <c r="H121" s="7">
         <v>-1.95E-2</v>
       </c>
-      <c r="I121" s="36"/>
+      <c r="I121" s="33"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B122" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="31">
+      <c r="B122" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="34">
         <v>0.34239999999999998</v>
       </c>
-      <c r="D122" s="31" t="s">
+      <c r="D122" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E122" s="4">
@@ -6306,7 +6306,7 @@
       <c r="H122" s="4">
         <v>0.63590000000000002</v>
       </c>
-      <c r="I122" s="34" t="s">
+      <c r="I122" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6314,9 +6314,9 @@
       <c r="A123" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B123" s="32"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="32"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="35"/>
       <c r="E123" s="2">
         <v>0.35</v>
       </c>
@@ -6329,15 +6329,15 @@
       <c r="H123" s="2">
         <v>0.59440000000000004</v>
       </c>
-      <c r="I123" s="35"/>
+      <c r="I123" s="32"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B124" s="32"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="32"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
       <c r="E124" s="2">
         <v>0.2727</v>
       </c>
@@ -6350,15 +6350,15 @@
       <c r="H124" s="2">
         <v>0.54449999999999998</v>
       </c>
-      <c r="I124" s="35"/>
+      <c r="I124" s="32"/>
     </row>
     <row r="125" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B125" s="33"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="33"/>
+      <c r="B125" s="36"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
       <c r="E125" s="7">
         <v>0.69230000000000003</v>
       </c>
@@ -6371,19 +6371,19 @@
       <c r="H125" s="7">
         <v>0.47199999999999998</v>
       </c>
-      <c r="I125" s="36"/>
+      <c r="I125" s="33"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B126" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="31">
+      <c r="B126" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="34">
         <v>0.34739999999999999</v>
       </c>
-      <c r="D126" s="31" t="s">
+      <c r="D126" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E126" s="4">
@@ -6398,7 +6398,7 @@
       <c r="H126" s="4">
         <v>0.14580000000000001</v>
       </c>
-      <c r="I126" s="34" t="s">
+      <c r="I126" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6406,9 +6406,9 @@
       <c r="A127" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B127" s="37"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="37"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="40"/>
       <c r="E127" s="11">
         <v>0.12230000000000001</v>
       </c>
@@ -6421,19 +6421,19 @@
       <c r="H127" s="11">
         <v>1.72E-2</v>
       </c>
-      <c r="I127" s="38"/>
+      <c r="I127" s="39"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B128" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="31">
+      <c r="B128" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="34">
         <v>0.48220000000000002</v>
       </c>
       <c r="E128" s="4">
@@ -6448,7 +6448,7 @@
       <c r="H128" s="4">
         <v>-1.9E-3</v>
       </c>
-      <c r="I128" s="34" t="s">
+      <c r="I128" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6456,9 +6456,9 @@
       <c r="A129" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B129" s="32"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="32"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
       <c r="E129" s="2">
         <v>0.3125</v>
       </c>
@@ -6471,15 +6471,15 @@
       <c r="H129" s="2">
         <v>-1.5900000000000001E-2</v>
       </c>
-      <c r="I129" s="35"/>
+      <c r="I129" s="32"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B130" s="32"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
       <c r="E130" s="2">
         <v>0.31430000000000002</v>
       </c>
@@ -6492,15 +6492,15 @@
       <c r="H130" s="2">
         <v>-2.23E-2</v>
       </c>
-      <c r="I130" s="35"/>
+      <c r="I130" s="32"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B131" s="32"/>
-      <c r="C131" s="32"/>
-      <c r="D131" s="32"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
       <c r="E131" s="2">
         <v>0.2903</v>
       </c>
@@ -6513,15 +6513,15 @@
       <c r="H131" s="2">
         <v>0.1026</v>
       </c>
-      <c r="I131" s="35"/>
+      <c r="I131" s="32"/>
     </row>
     <row r="132" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B132" s="33"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
       <c r="E132" s="7">
         <v>0.66669999999999996</v>
       </c>
@@ -6534,19 +6534,19 @@
       <c r="H132" s="7">
         <v>-4.1000000000000002E-2</v>
       </c>
-      <c r="I132" s="36"/>
+      <c r="I132" s="33"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B133" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="31">
+      <c r="B133" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="34">
         <v>0.41349999999999998</v>
       </c>
       <c r="E133" s="4">
@@ -6561,7 +6561,7 @@
       <c r="H133" s="4">
         <v>-2.3300000000000001E-2</v>
       </c>
-      <c r="I133" s="34" t="s">
+      <c r="I133" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6569,9 +6569,9 @@
       <c r="A134" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B134" s="32"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="32"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
       <c r="E134" s="2">
         <v>0.20860000000000001</v>
       </c>
@@ -6584,15 +6584,15 @@
       <c r="H134" s="2">
         <v>-2.2700000000000001E-2</v>
       </c>
-      <c r="I134" s="35"/>
+      <c r="I134" s="32"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B135" s="32"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="32"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
       <c r="E135" s="2">
         <v>0.33329999999999999</v>
       </c>
@@ -6605,15 +6605,15 @@
       <c r="H135" s="2">
         <v>4.9299999999999997E-2</v>
       </c>
-      <c r="I135" s="35"/>
+      <c r="I135" s="32"/>
     </row>
     <row r="136" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B136" s="33"/>
-      <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="36"/>
       <c r="E136" s="7">
         <v>0.38890000000000002</v>
       </c>
@@ -6626,19 +6626,19 @@
       <c r="H136" s="7">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="I136" s="36"/>
+      <c r="I136" s="33"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B137" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C137" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" s="31">
+      <c r="B137" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="34">
         <v>0.44519999999999998</v>
       </c>
       <c r="E137" s="4">
@@ -6653,7 +6653,7 @@
       <c r="H137" s="4">
         <v>-7.9000000000000008E-3</v>
       </c>
-      <c r="I137" s="34" t="s">
+      <c r="I137" s="31" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6661,9 +6661,9 @@
       <c r="A138" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B138" s="32"/>
-      <c r="C138" s="32"/>
-      <c r="D138" s="32"/>
+      <c r="B138" s="35"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="35"/>
       <c r="E138" s="2">
         <v>0.25369999999999998</v>
       </c>
@@ -6676,15 +6676,15 @@
       <c r="H138" s="2">
         <v>-8.8999999999999999E-3</v>
       </c>
-      <c r="I138" s="35"/>
+      <c r="I138" s="32"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B139" s="32"/>
-      <c r="C139" s="32"/>
-      <c r="D139" s="32"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="35"/>
+      <c r="D139" s="35"/>
       <c r="E139" s="2">
         <v>0.28360000000000002</v>
       </c>
@@ -6697,15 +6697,15 @@
       <c r="H139" s="2">
         <v>-1.2E-2</v>
       </c>
-      <c r="I139" s="35"/>
+      <c r="I139" s="32"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="32"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
       <c r="E140" s="2">
         <v>0.38100000000000001</v>
       </c>
@@ -6718,15 +6718,15 @@
       <c r="H140" s="2">
         <v>-3.3999999999999998E-3</v>
       </c>
-      <c r="I140" s="35"/>
+      <c r="I140" s="32"/>
     </row>
     <row r="141" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B141" s="33"/>
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="36"/>
       <c r="E141" s="7">
         <v>0.31580000000000003</v>
       </c>
@@ -6739,19 +6739,19 @@
       <c r="H141" s="7">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="I141" s="36"/>
+      <c r="I141" s="33"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B142" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="31">
+      <c r="B142" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="34">
         <v>0.44030000000000002</v>
       </c>
       <c r="E142" s="4">
@@ -6766,7 +6766,7 @@
       <c r="H142" s="4">
         <v>0.54710000000000003</v>
       </c>
-      <c r="I142" s="34" t="s">
+      <c r="I142" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6774,9 +6774,9 @@
       <c r="A143" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B143" s="32"/>
-      <c r="C143" s="32"/>
-      <c r="D143" s="32"/>
+      <c r="B143" s="35"/>
+      <c r="C143" s="35"/>
+      <c r="D143" s="35"/>
       <c r="E143" s="2">
         <v>0.21179999999999999</v>
       </c>
@@ -6789,15 +6789,15 @@
       <c r="H143" s="2">
         <v>0.56889999999999996</v>
       </c>
-      <c r="I143" s="35"/>
+      <c r="I143" s="32"/>
     </row>
     <row r="144" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B144" s="33"/>
-      <c r="C144" s="33"/>
-      <c r="D144" s="33"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="36"/>
       <c r="E144" s="7">
         <v>6.8500000000000005E-2</v>
       </c>
@@ -6810,19 +6810,19 @@
       <c r="H144" s="7">
         <v>0.61550000000000005</v>
       </c>
-      <c r="I144" s="36"/>
+      <c r="I144" s="33"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B145" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C145" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" s="31">
+      <c r="B145" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="34">
         <v>0.40229999999999999</v>
       </c>
       <c r="E145" s="4">
@@ -6837,7 +6837,7 @@
       <c r="H145" s="4">
         <v>0.27800000000000002</v>
       </c>
-      <c r="I145" s="34" t="s">
+      <c r="I145" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6845,9 +6845,9 @@
       <c r="A146" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B146" s="32"/>
-      <c r="C146" s="32"/>
-      <c r="D146" s="32"/>
+      <c r="B146" s="35"/>
+      <c r="C146" s="35"/>
+      <c r="D146" s="35"/>
       <c r="E146" s="2">
         <v>0.1</v>
       </c>
@@ -6860,15 +6860,15 @@
       <c r="H146" s="2">
         <v>8.6300000000000002E-2</v>
       </c>
-      <c r="I146" s="35"/>
+      <c r="I146" s="32"/>
     </row>
     <row r="147" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B147" s="33"/>
-      <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
+      <c r="B147" s="36"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="36"/>
       <c r="E147" s="7">
         <v>0.5</v>
       </c>
@@ -6881,21 +6881,191 @@
       <c r="H147" s="7">
         <v>0.16470000000000001</v>
       </c>
-      <c r="I147" s="36"/>
+      <c r="I147" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="S82:S87"/>
-    <mergeCell ref="L82:L87"/>
-    <mergeCell ref="M82:M87"/>
-    <mergeCell ref="N82:N87"/>
-    <mergeCell ref="S88:S91"/>
-    <mergeCell ref="L88:L91"/>
-    <mergeCell ref="M88:M91"/>
-    <mergeCell ref="N88:N91"/>
-    <mergeCell ref="I145:I147"/>
-    <mergeCell ref="I115:I117"/>
-    <mergeCell ref="I97:I101"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="I32:I37"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="I16:I22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="I51:I55"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="I43:I48"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="I69:I73"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="C56:C61"/>
+    <mergeCell ref="D56:D61"/>
+    <mergeCell ref="I56:I61"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="I62:I66"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="M2:M7"/>
+    <mergeCell ref="N2:N7"/>
+    <mergeCell ref="S2:S7"/>
+    <mergeCell ref="S8:S11"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="I91:I94"/>
+    <mergeCell ref="B80:B86"/>
+    <mergeCell ref="C80:C86"/>
+    <mergeCell ref="D80:D86"/>
+    <mergeCell ref="I80:I86"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="I87:I90"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="S24:S29"/>
+    <mergeCell ref="L24:L29"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="N24:N29"/>
+    <mergeCell ref="S12:S16"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="M12:M16"/>
+    <mergeCell ref="N12:N16"/>
+    <mergeCell ref="S17:S21"/>
+    <mergeCell ref="L17:L21"/>
+    <mergeCell ref="M17:M21"/>
+    <mergeCell ref="N17:N21"/>
+    <mergeCell ref="S39:S43"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="M39:M43"/>
+    <mergeCell ref="N39:N43"/>
+    <mergeCell ref="S30:S33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="L34:L38"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="N34:N38"/>
+    <mergeCell ref="S52:S55"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="M52:M55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="S56:S60"/>
+    <mergeCell ref="L56:L60"/>
+    <mergeCell ref="M56:M60"/>
+    <mergeCell ref="N56:N60"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="S46:S51"/>
+    <mergeCell ref="L46:L51"/>
+    <mergeCell ref="M46:M51"/>
+    <mergeCell ref="N46:N51"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="I102:I104"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="S61:S65"/>
+    <mergeCell ref="L61:L65"/>
+    <mergeCell ref="M61:M65"/>
+    <mergeCell ref="N61:N65"/>
+    <mergeCell ref="S66:S67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="I118:I121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="I105:I108"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="I110:I113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="I133:I136"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="I122:I125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="C145:C147"/>
     <mergeCell ref="D145:D147"/>
@@ -6920,187 +7090,17 @@
     <mergeCell ref="C142:C144"/>
     <mergeCell ref="D142:D144"/>
     <mergeCell ref="I128:I132"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="D128:D132"/>
-    <mergeCell ref="I133:I136"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="I122:I125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="I118:I121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="I105:I108"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="I110:I113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="I102:I104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="S61:S65"/>
-    <mergeCell ref="L61:L65"/>
-    <mergeCell ref="M61:M65"/>
-    <mergeCell ref="N61:N65"/>
-    <mergeCell ref="S66:S67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="S52:S55"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="M52:M55"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="S56:S60"/>
-    <mergeCell ref="L56:L60"/>
-    <mergeCell ref="M56:M60"/>
-    <mergeCell ref="N56:N60"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="S46:S51"/>
-    <mergeCell ref="L46:L51"/>
-    <mergeCell ref="M46:M51"/>
-    <mergeCell ref="N46:N51"/>
-    <mergeCell ref="S39:S43"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="M39:M43"/>
-    <mergeCell ref="N39:N43"/>
-    <mergeCell ref="S30:S33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="S34:S38"/>
-    <mergeCell ref="L34:L38"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="N34:N38"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="S24:S29"/>
-    <mergeCell ref="L24:L29"/>
-    <mergeCell ref="M24:M29"/>
-    <mergeCell ref="N24:N29"/>
-    <mergeCell ref="S12:S16"/>
-    <mergeCell ref="L12:L16"/>
-    <mergeCell ref="M12:M16"/>
-    <mergeCell ref="N12:N16"/>
-    <mergeCell ref="S17:S21"/>
-    <mergeCell ref="L17:L21"/>
-    <mergeCell ref="M17:M21"/>
-    <mergeCell ref="N17:N21"/>
-    <mergeCell ref="L2:L7"/>
-    <mergeCell ref="M2:M7"/>
-    <mergeCell ref="N2:N7"/>
-    <mergeCell ref="S2:S7"/>
-    <mergeCell ref="S8:S11"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="I91:I94"/>
-    <mergeCell ref="B80:B86"/>
-    <mergeCell ref="C80:C86"/>
-    <mergeCell ref="D80:D86"/>
-    <mergeCell ref="I80:I86"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="I87:I90"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="I69:I73"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="C56:C61"/>
-    <mergeCell ref="D56:D61"/>
-    <mergeCell ref="I56:I61"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="I62:I66"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="I51:I55"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="I43:I48"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="I32:I37"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="I16:I22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="S82:S87"/>
+    <mergeCell ref="L82:L87"/>
+    <mergeCell ref="M82:M87"/>
+    <mergeCell ref="N82:N87"/>
+    <mergeCell ref="S88:S91"/>
+    <mergeCell ref="L88:L91"/>
+    <mergeCell ref="M88:M91"/>
+    <mergeCell ref="N88:N91"/>
+    <mergeCell ref="I145:I147"/>
+    <mergeCell ref="I115:I117"/>
+    <mergeCell ref="I97:I101"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B31">
     <cfRule type="expression" dxfId="87" priority="77">
